--- a/datos.xlsx
+++ b/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deneb\code\generador-cartas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\generador-cartas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A8632A-F534-4610-A680-6F8558BB82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB662D28-5F61-4DA7-886D-8634C247CE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30435" yWindow="540" windowWidth="19335" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>nombre_padre</t>
   </si>
@@ -64,14 +64,18 @@
   </si>
   <si>
     <t>Roberto</t>
+  </si>
+  <si>
+    <t>fecha_pago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -108,17 +112,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -139,6 +152,16 @@
     <tableColumn id="2" xr3:uid="{D8F18183-EFCE-4FBA-B4FE-B72F26EE2BEF}" name="nombre_madre"/>
     <tableColumn id="3" xr3:uid="{13FE674A-9CED-4AD2-AE47-E37135B514F7}" name="nombre_estudiante"/>
     <tableColumn id="4" xr3:uid="{BDE080AB-F6DC-4C60-9BCC-D0492C1CC62D}" name="monto_deuda" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC60F95E-FFF5-473C-BE42-8ED53E18942E}" name="Table1" displayName="Table1" ref="E1:E2" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="E1:E2" xr:uid="{EC60F95E-FFF5-473C-BE42-8ED53E18942E}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{79C17C96-FA7C-45FF-8C5F-485A09172CCE}" name="fecha_pago" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -407,21 +430,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +458,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -448,8 +475,11 @@
       <c r="D2" s="1">
         <v>150000</v>
       </c>
+      <c r="E2" s="3">
+        <v>44827</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -462,8 +492,9 @@
       <c r="D3" s="1">
         <v>25000</v>
       </c>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -477,13 +508,14 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\generador-cartas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB662D28-5F61-4DA7-886D-8634C247CE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F621871C-2C13-48DF-9215-51CC0BF3B160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="540" windowWidth="19335" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="2775" windowWidth="19335" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>nombre_padre</t>
   </si>
@@ -39,34 +47,322 @@
     <t>monto_deuda</t>
   </si>
   <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Luisa</t>
-  </si>
-  <si>
-    <t>Andrea</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Andrey</t>
-  </si>
-  <si>
-    <t>Paola</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
     <t>fecha_pago</t>
+  </si>
+  <si>
+    <t>Arnoldo Guzmán Wachong</t>
+  </si>
+  <si>
+    <t>Ricardo Elizondo García</t>
+  </si>
+  <si>
+    <t>Gerald Zúñiga Sibaja</t>
+  </si>
+  <si>
+    <t>Jorge Rojas Campos</t>
+  </si>
+  <si>
+    <t>Marcos Yashin Quesada Araya</t>
+  </si>
+  <si>
+    <t>Antonio Vargas González</t>
+  </si>
+  <si>
+    <t>Miguel Adolfo Amador Vargas</t>
+  </si>
+  <si>
+    <t>Mario Negrini Argüello</t>
+  </si>
+  <si>
+    <t>Gustavo Delgado Chaves</t>
+  </si>
+  <si>
+    <t>Olger Antonio Molina Rojas</t>
+  </si>
+  <si>
+    <t>David Alonso Castro Bustamante</t>
+  </si>
+  <si>
+    <t>Gerardo Pola Jerez</t>
+  </si>
+  <si>
+    <t>Daniel Ortiz Umaña</t>
+  </si>
+  <si>
+    <t>Jorge Andrés Li Camacho</t>
+  </si>
+  <si>
+    <t>Esteban Alberto Matamoros Quesada</t>
+  </si>
+  <si>
+    <t>Jermaine Alexander Green Williams</t>
+  </si>
+  <si>
+    <t>Esteban Villalobos Chaves</t>
+  </si>
+  <si>
+    <t>Adrián Cordero Flores</t>
+  </si>
+  <si>
+    <t>Andrés Lara Cordero</t>
+  </si>
+  <si>
+    <t>Gabriela Salazar Arias</t>
+  </si>
+  <si>
+    <t>Andrea Ramírez Monge</t>
+  </si>
+  <si>
+    <t>Laura Aguilar Alfaro</t>
+  </si>
+  <si>
+    <t>Silvia Eugenia Zamora Gamboa</t>
+  </si>
+  <si>
+    <t>Ana Gabriela Amador Vargas</t>
+  </si>
+  <si>
+    <t>Alejandra Quirós Rodríguez</t>
+  </si>
+  <si>
+    <t>Sofía Rojas Alpízar</t>
+  </si>
+  <si>
+    <t>Priscilla Irene Bolaños Mora</t>
+  </si>
+  <si>
+    <t>María Marta Chaves Fallas</t>
+  </si>
+  <si>
+    <t>Jahaira Andrea Castro Obando</t>
+  </si>
+  <si>
+    <t>Cinthia Melissa Quirós Castro</t>
+  </si>
+  <si>
+    <t>María Stella Delgado Alvarado</t>
+  </si>
+  <si>
+    <t>Ivannia González Quirós</t>
+  </si>
+  <si>
+    <t>Silvia María Rojas López</t>
+  </si>
+  <si>
+    <t>Laura Patricia Font Vega</t>
+  </si>
+  <si>
+    <t>Katherine Virginia Campbell Samuels</t>
+  </si>
+  <si>
+    <t>María Esther Montero Delgado</t>
+  </si>
+  <si>
+    <t>Suee Fallas Vargas</t>
+  </si>
+  <si>
+    <t>Rebeca Chavarría Soto</t>
+  </si>
+  <si>
+    <t>Adrián Sánchez Rodríguez</t>
+  </si>
+  <si>
+    <t>Randall González Uribe</t>
+  </si>
+  <si>
+    <t>Luis Guillermo Ugalde Vílchez</t>
+  </si>
+  <si>
+    <t>Jorge Gutiérrez Soto</t>
+  </si>
+  <si>
+    <t>Ronald Rodolfo López Pérez</t>
+  </si>
+  <si>
+    <t>Oscar Guzmán Fernández</t>
+  </si>
+  <si>
+    <t>Víctor Alonso Abarca Sánchez</t>
+  </si>
+  <si>
+    <t>Miguel Quirós Picado</t>
+  </si>
+  <si>
+    <t>Jairo Orozco Valerio</t>
+  </si>
+  <si>
+    <t>Christian Alberto Wright Samuels</t>
+  </si>
+  <si>
+    <t>José Julián Rocha Rivera</t>
+  </si>
+  <si>
+    <t>Gustavo Ocampo Rojas</t>
+  </si>
+  <si>
+    <t>Andrés Vera Murillo</t>
+  </si>
+  <si>
+    <t>Gilberto de Jesús Mussio Rojas</t>
+  </si>
+  <si>
+    <t>Rafael Félix Zeballos Beltrán</t>
+  </si>
+  <si>
+    <t>Gustavo Campbell Barr</t>
+  </si>
+  <si>
+    <t>Jacqueline Paola Barrera Chavarría</t>
+  </si>
+  <si>
+    <t>Marcela de Los A. Quesada Pineda</t>
+  </si>
+  <si>
+    <t>Ivania Cabezas Zeledón</t>
+  </si>
+  <si>
+    <t>Silvia Molina Álvarez</t>
+  </si>
+  <si>
+    <t>Ana Silvia Barahona Recinos</t>
+  </si>
+  <si>
+    <t>Raquel Masís</t>
+  </si>
+  <si>
+    <t>Sharon Núñez Milgram</t>
+  </si>
+  <si>
+    <t>Rebeca Eugenia Guzmán Rivera</t>
+  </si>
+  <si>
+    <t>Wendy Vega Valerio</t>
+  </si>
+  <si>
+    <t>Denise Lorena Bryan González</t>
+  </si>
+  <si>
+    <t>Gabriela Barquero M</t>
+  </si>
+  <si>
+    <t>Gabriela Lara Hernández</t>
+  </si>
+  <si>
+    <t>Andrea Rubí Cortés</t>
+  </si>
+  <si>
+    <t>Adriana Chacón Navarro</t>
+  </si>
+  <si>
+    <t>Yvy Marilyn LLerena Muñoz</t>
+  </si>
+  <si>
+    <t>Patricia González Rodríguez</t>
+  </si>
+  <si>
+    <t>Elizondo Ramírez Gabriel y Ximena</t>
+  </si>
+  <si>
+    <t>Quirós Guzmán Gabriel Felipe y Ángel</t>
+  </si>
+  <si>
+    <t>Amador Rojas Lucas y Tomás</t>
+  </si>
+  <si>
+    <t>Li Rojas Sofía y Santiago</t>
+  </si>
+  <si>
+    <t>Orozco Vega Gabriel y Mariana</t>
+  </si>
+  <si>
+    <t>Abarca Núñez Andrés</t>
+  </si>
+  <si>
+    <t>Campbell González Wendell Iván</t>
+  </si>
+  <si>
+    <t>Castro Quirós Mariana Sofía</t>
+  </si>
+  <si>
+    <t>Cordero Fallas Fabiana</t>
+  </si>
+  <si>
+    <t>González Quesada Sofía de los Ángeles</t>
+  </si>
+  <si>
+    <t>Green Campbell Andrew Nathaniel</t>
+  </si>
+  <si>
+    <t>Gutiérrez Molina Luciana</t>
+  </si>
+  <si>
+    <t>Guzmán Masís Alessandro</t>
+  </si>
+  <si>
+    <t>Guzmán Salazar Arnoldo de Jesús</t>
+  </si>
+  <si>
+    <t>López Barahona Iker Isaac</t>
+  </si>
+  <si>
+    <t>Delgado Chaves Luis Gustavo y Maria del Milagro</t>
+  </si>
+  <si>
+    <t>Matamoros Font Emiliano</t>
+  </si>
+  <si>
+    <t>Molina Castro Bianca</t>
+  </si>
+  <si>
+    <t>Mussio Chacón Sofía</t>
+  </si>
+  <si>
+    <t>Negrini Bolaños Óscar Daniel</t>
+  </si>
+  <si>
+    <t>Ocampo Lara Daniel</t>
+  </si>
+  <si>
+    <t>Ortíz González Alison</t>
+  </si>
+  <si>
+    <t>Oviedo Chavarría Valery</t>
+  </si>
+  <si>
+    <t>Pola Delgado Sara</t>
+  </si>
+  <si>
+    <t>Quesada Amador Camila María</t>
+  </si>
+  <si>
+    <t>Rocha Barquero Thiago Julián</t>
+  </si>
+  <si>
+    <t>Rojas Gamboa María José</t>
+  </si>
+  <si>
+    <t>Sánchez Barrera Santiago</t>
+  </si>
+  <si>
+    <t>Ugalde Cabezas Luis Diego</t>
+  </si>
+  <si>
+    <t>Vargas Quirós María Paula</t>
+  </si>
+  <si>
+    <t>Vera Rubí Suri</t>
+  </si>
+  <si>
+    <t>Villalobos Montero Elías</t>
+  </si>
+  <si>
+    <t>Wright Bryan Dominic</t>
+  </si>
+  <si>
+    <t>Zeballos Llerena María Fernanda</t>
+  </si>
+  <si>
+    <t>Zúñiga Aguilar Brittany</t>
   </si>
 </sst>
 </file>
@@ -75,9 +371,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +387,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,22 +416,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,23 +493,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{31FC1ED2-BBE1-4584-8BF8-9D0B0DAB119C}" name="Table2" displayName="Table2" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{31FC1ED2-BBE1-4584-8BF8-9D0B0DAB119C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:D36" totalsRowShown="0">
+  <autoFilter ref="A1:D36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+    <sortCondition ref="C1:C36"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EFDFD9ED-6165-49A5-A1B3-4A31C123B62D}" name="nombre_padre"/>
-    <tableColumn id="2" xr3:uid="{D8F18183-EFCE-4FBA-B4FE-B72F26EE2BEF}" name="nombre_madre"/>
-    <tableColumn id="3" xr3:uid="{13FE674A-9CED-4AD2-AE47-E37135B514F7}" name="nombre_estudiante"/>
-    <tableColumn id="4" xr3:uid="{BDE080AB-F6DC-4C60-9BCC-D0492C1CC62D}" name="monto_deuda" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nombre_padre" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nombre_madre" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="nombre_estudiante" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="monto_deuda" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC60F95E-FFF5-473C-BE42-8ED53E18942E}" name="Table1" displayName="Table1" ref="E1:E2" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="E1:E2" xr:uid="{EC60F95E-FFF5-473C-BE42-8ED53E18942E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="E1:E2" totalsRowShown="0" dataDxfId="1">
+  <autoFilter ref="E1:E2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{79C17C96-FA7C-45FF-8C5F-485A09172CCE}" name="fecha_pago" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fecha_pago" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -430,18 +781,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -459,57 +809,502 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>150000</v>
+        <v>434499.69</v>
       </c>
       <c r="E2" s="3">
         <v>44827</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1">
+        <v>963280</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1">
+        <v>133920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1">
+        <v>321300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3367654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1">
+        <v>434500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1">
+        <v>77200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1">
+        <v>434500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="1">
+        <v>434500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1">
+        <v>154500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1817000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1">
+        <v>434500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1">
+        <v>395400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1863966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1">
+        <v>295350.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11560264.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1">
+        <v>365850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1">
+        <v>735050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1">
+        <v>821100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="1">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1099000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1">
+        <v>445200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1">
+        <v>721795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1">
+        <v>377850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="1">
+        <v>236000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="1">
+        <v>434500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="1">
+        <v>434500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="1">
+        <v>544710</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1">
+        <v>320100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="1">
+        <v>852800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="1">
+        <v>392700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1">
+        <v>167000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>83000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1">
+        <v>717150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
